--- a/examples/auth-flask-login/xlsx/student.xlsx
+++ b/examples/auth-flask-login/xlsx/student.xlsx
@@ -4,20 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20445" windowHeight="12195"/>
+    <workbookView windowWidth="19200" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="course" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">course!$A$1:$E$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">course!$A$1:$E$133</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="284">
   <si>
     <t>唯一编号</t>
   </si>
@@ -347,19 +360,542 @@
   </si>
   <si>
     <t>周斌</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>刘欢</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>舒小美</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>李常疆</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>陈鹏</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>刘昭胜</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>那悦</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>张黎芳</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>梁海明</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>游江</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>杨珍妹</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>李心仪</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>魏翠莲</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>张婉婷</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>王军锋</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>姜小凡</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>袁颖</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>方鹏</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>曹晓燕</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>邱东兴</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>曾晖</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>谢作友</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>李荣兵</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>吴红亮</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>刘婷婷</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>刘青山</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>赵芮程</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>何佳鹏</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>娄滨勇</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>田露</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>王软娥</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>王鹏博</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>李超慧</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>于耀驰</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>陈红</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>徐千祥</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>张国财</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>张俊辉</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>穆秋程</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>牛珺石</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>孙娟</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>李薇</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>吕聪雪</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>吴桂云</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>胡超杰</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>胡佳</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>胡佳佳</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>周璇</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>李振鑫</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>张俊</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>康桂娟</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>张晓云</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>李鑫静</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>贲雅静</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>杨国平</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>赵庆</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>祁雅宁</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>章敏</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>辛可萍</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>张苗</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>冼智炜</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>陈峰</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>张蕾</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>杨新凤</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>王亚锋</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>杨一帆</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>黄安仙</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>杨瑞楠</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>薛琴</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>王若兰</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>赵磊</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>孙浩博</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>高佳华</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>刘鑫</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>罗艳征</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>淳淋茜</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>蓝淑娇</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>张智霖</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>卢新霞</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>吴同</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>张喆</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>马春花</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>李凯</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>王凯</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>郑常见</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>刘松</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>孙业伟</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>练文基</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +907,142 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -387,137 +1059,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,7 +1073,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,61 +1259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,115 +1271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,39 +1301,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -791,10 +1317,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -803,8 +1327,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,157 +1377,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,57 +1570,88 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2 2 2 3" xfId="49"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1341,10 +1932,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2241,17 +2832,1559 @@
         <v>10</v>
       </c>
     </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="7">
+        <v>15149476500</v>
+      </c>
+      <c r="D53" s="8">
+        <v>123456</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="7">
+        <v>15851181046</v>
+      </c>
+      <c r="D54" s="8">
+        <v>123456</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="8">
+        <v>15009990691</v>
+      </c>
+      <c r="D55" s="8">
+        <v>123456</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="9">
+        <v>15826666691</v>
+      </c>
+      <c r="D56" s="10">
+        <v>123456</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="9">
+        <v>13875983030</v>
+      </c>
+      <c r="D57" s="10">
+        <v>123456</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="9">
+        <v>17200679518</v>
+      </c>
+      <c r="D58" s="10">
+        <v>123456</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="9">
+        <v>15704763233</v>
+      </c>
+      <c r="D59" s="10">
+        <v>123456</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="12">
+        <v>18878795070</v>
+      </c>
+      <c r="D60" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="12">
+        <v>18982410719</v>
+      </c>
+      <c r="D61" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="12">
+        <v>18306926918</v>
+      </c>
+      <c r="D62" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="12">
+        <v>13420488197</v>
+      </c>
+      <c r="D63" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="12">
+        <v>15246472321</v>
+      </c>
+      <c r="D64" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="12">
+        <v>17688188321</v>
+      </c>
+      <c r="D65" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="12">
+        <v>18121706155</v>
+      </c>
+      <c r="D66" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="12">
+        <v>18907200305</v>
+      </c>
+      <c r="D67" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="12">
+        <v>18523055158</v>
+      </c>
+      <c r="D68" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="12">
+        <v>15699110916</v>
+      </c>
+      <c r="D69" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="12">
+        <v>13393189177</v>
+      </c>
+      <c r="D70" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="12">
+        <v>15080292161</v>
+      </c>
+      <c r="D71" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="12">
+        <v>18214937203</v>
+      </c>
+      <c r="D72" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="12">
+        <v>15395773132</v>
+      </c>
+      <c r="D73" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="12">
+        <v>15329497517</v>
+      </c>
+      <c r="D74" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="12">
+        <v>15008804325</v>
+      </c>
+      <c r="D75" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="12">
+        <v>18805131100</v>
+      </c>
+      <c r="D76" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="12">
+        <v>18775177700</v>
+      </c>
+      <c r="D77" s="13">
+        <v>989899</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="12">
+        <v>18741776560</v>
+      </c>
+      <c r="D78" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="12">
+        <v>18218136720</v>
+      </c>
+      <c r="D79" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="12">
+        <v>18006769055</v>
+      </c>
+      <c r="D80" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="12">
+        <v>17609155525</v>
+      </c>
+      <c r="D81" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="12">
+        <v>13007045241</v>
+      </c>
+      <c r="D82" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="12">
+        <v>17843086750</v>
+      </c>
+      <c r="D83" s="13">
+        <v>989899</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="12">
+        <v>15500752573</v>
+      </c>
+      <c r="D84" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="12">
+        <v>15001805105</v>
+      </c>
+      <c r="D85" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="12">
+        <v>15715773213</v>
+      </c>
+      <c r="D86" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="12">
+        <v>16607050168</v>
+      </c>
+      <c r="D87" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="12">
+        <v>13760958788</v>
+      </c>
+      <c r="D88" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="12">
+        <v>15012878883</v>
+      </c>
+      <c r="D89" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="12">
+        <v>13920208539</v>
+      </c>
+      <c r="D90" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" s="12">
+        <v>15022650258</v>
+      </c>
+      <c r="D91" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="12">
+        <v>15070055807</v>
+      </c>
+      <c r="D92" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="12">
+        <v>13983845256</v>
+      </c>
+      <c r="D93" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="12">
+        <v>15210072137</v>
+      </c>
+      <c r="D94" s="13">
+        <v>989899</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="12">
+        <v>13095713318</v>
+      </c>
+      <c r="D95" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="12">
+        <v>18893411887</v>
+      </c>
+      <c r="D96" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" s="12">
+        <v>18680862660</v>
+      </c>
+      <c r="D97" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="12">
+        <v>18680862661</v>
+      </c>
+      <c r="D98" s="13">
+        <v>989899</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="12">
+        <v>13576024857</v>
+      </c>
+      <c r="D99" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="12">
+        <v>15543239678</v>
+      </c>
+      <c r="D100" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="12">
+        <v>17665091463</v>
+      </c>
+      <c r="D101" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="12">
+        <v>18297112511</v>
+      </c>
+      <c r="D102" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="12">
+        <v>18507713828</v>
+      </c>
+      <c r="D103" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="12">
+        <v>18671609226</v>
+      </c>
+      <c r="D104" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" s="12">
+        <v>13844822324</v>
+      </c>
+      <c r="D105" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C106" s="12">
+        <v>19171345281</v>
+      </c>
+      <c r="D106" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C107" s="12">
+        <v>19930015196</v>
+      </c>
+      <c r="D107" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C108" s="12">
+        <v>17732849177</v>
+      </c>
+      <c r="D108" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="12">
+        <v>18772551660</v>
+      </c>
+      <c r="D109" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="12">
+        <v>13912364567</v>
+      </c>
+      <c r="D110" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="12">
+        <v>18995192732</v>
+      </c>
+      <c r="D111" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" s="12">
+        <v>13560123912</v>
+      </c>
+      <c r="D112" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" s="12">
+        <v>15513366185</v>
+      </c>
+      <c r="D113" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" s="12">
+        <v>13654731860</v>
+      </c>
+      <c r="D114" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" s="12">
+        <v>13570387940</v>
+      </c>
+      <c r="D115" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C116" s="12">
+        <v>17319688866</v>
+      </c>
+      <c r="D116" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C117" s="12">
+        <v>15577216808</v>
+      </c>
+      <c r="D117" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C118" s="12">
+        <v>18849815087</v>
+      </c>
+      <c r="D118" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="12">
+        <v>18735040608</v>
+      </c>
+      <c r="D119" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" s="12">
+        <v>13961849994</v>
+      </c>
+      <c r="D120" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" s="13">
+        <v>15171011393</v>
+      </c>
+      <c r="D121" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" s="13">
+        <v>13290271005</v>
+      </c>
+      <c r="D122" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C123" s="12">
+        <v>18630769228</v>
+      </c>
+      <c r="D123" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" s="12">
+        <v>15142953225</v>
+      </c>
+      <c r="D124" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C125" s="12">
+        <v>15235156096</v>
+      </c>
+      <c r="D125" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C126" s="12">
+        <v>15620527333</v>
+      </c>
+      <c r="D126" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C127" s="12">
+        <v>15519812531</v>
+      </c>
+      <c r="D127" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" s="12">
+        <v>15160003037</v>
+      </c>
+      <c r="D128" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C129" s="12">
+        <v>13600949697</v>
+      </c>
+      <c r="D129" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C130" s="2">
+        <v>13542763855</v>
+      </c>
+      <c r="D130" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C131" s="2">
+        <v>13022819624</v>
+      </c>
+      <c r="D131" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C132" s="2">
+        <v>18893840756</v>
+      </c>
+      <c r="D132" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C133" s="2">
+        <v>15050519295</v>
+      </c>
+      <c r="D133" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C134" s="13">
+        <v>13755599203</v>
+      </c>
+      <c r="D134" s="15">
+        <v>123456</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" s="13">
+        <v>18142306802</v>
+      </c>
+      <c r="D135" s="15">
+        <v>123456</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" s="13">
+        <v>15309265618</v>
+      </c>
+      <c r="D136" s="15">
+        <v>123456</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C137" s="16">
+        <v>18336202333</v>
+      </c>
+      <c r="D137" s="15">
+        <v>123456</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138" s="16">
+        <v>15701570080</v>
+      </c>
+      <c r="D138" s="15">
+        <v>123456</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C139" s="16">
+        <v>15918370531</v>
+      </c>
+      <c r="D139" s="15">
+        <v>123456</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E43">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E133" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B5:B27">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B43">
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:B54">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:B59">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:B61">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:B67">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B73">
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B80">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81:B82">
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:B87">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:B91">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93:B97">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98:B105">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106:B108">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B109:B112">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B113:B120">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B122">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123:B124">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125:B129">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137:B139">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
